--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntn1</t>
+  </si>
+  <si>
+    <t>Adora2b</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn1</t>
-  </si>
-  <si>
-    <t>Adora2b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H2">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1621673333333334</v>
+        <v>0.2644053333333333</v>
       </c>
       <c r="N2">
-        <v>0.486502</v>
+        <v>0.793216</v>
       </c>
       <c r="O2">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004857</v>
       </c>
       <c r="P2">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004859</v>
       </c>
       <c r="Q2">
-        <v>0.1374521127851111</v>
+        <v>0.4042586564551111</v>
       </c>
       <c r="R2">
-        <v>1.237069015066</v>
+        <v>3.638327908096</v>
       </c>
       <c r="S2">
-        <v>0.0004564176975253313</v>
+        <v>0.0007358910304416478</v>
       </c>
       <c r="T2">
-        <v>0.0004564176975253314</v>
+        <v>0.0007358910304416479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H3">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.535193</v>
       </c>
       <c r="O3">
-        <v>0.1096134018461438</v>
+        <v>0.0627126481351834</v>
       </c>
       <c r="P3">
-        <v>0.1096134018461438</v>
+        <v>0.06271264813518342</v>
       </c>
       <c r="Q3">
-        <v>1.846397518013222</v>
+        <v>3.330629162617555</v>
       </c>
       <c r="R3">
-        <v>16.617577662119</v>
+        <v>29.975662463558</v>
       </c>
       <c r="S3">
-        <v>0.006131069845434679</v>
+        <v>0.006062900787307673</v>
       </c>
       <c r="T3">
-        <v>0.006131069845434679</v>
+        <v>0.006062900787307674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H4">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>9.813985333333333</v>
+        <v>23.12224033333333</v>
       </c>
       <c r="N4">
-        <v>29.441956</v>
+        <v>69.366721</v>
       </c>
       <c r="O4">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702677</v>
       </c>
       <c r="P4">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702679</v>
       </c>
       <c r="Q4">
-        <v>8.318278355949777</v>
+        <v>35.35241023145844</v>
       </c>
       <c r="R4">
-        <v>74.86450520354801</v>
+        <v>318.171692083126</v>
       </c>
       <c r="S4">
-        <v>0.02762132482119727</v>
+        <v>0.06435365372741887</v>
       </c>
       <c r="T4">
-        <v>0.02762132482119727</v>
+        <v>0.06435365372741889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H5">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.667365666666667</v>
+        <v>1.778892333333333</v>
       </c>
       <c r="N5">
-        <v>5.002097</v>
+        <v>5.336677</v>
       </c>
       <c r="O5">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="P5">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="Q5">
-        <v>1.413249690661222</v>
+        <v>2.719811342629111</v>
       </c>
       <c r="R5">
-        <v>12.719247215951</v>
+        <v>24.478302083662</v>
       </c>
       <c r="S5">
-        <v>0.004692777410038124</v>
+        <v>0.004951000404258414</v>
       </c>
       <c r="T5">
-        <v>0.004692777410038124</v>
+        <v>0.004951000404258414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H6">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.551949666666667</v>
+        <v>1.462298333333333</v>
       </c>
       <c r="N6">
-        <v>7.655849</v>
+        <v>4.386895</v>
       </c>
       <c r="O6">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="P6">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="Q6">
-        <v>2.163018076418556</v>
+        <v>2.235759589707778</v>
       </c>
       <c r="R6">
-        <v>19.467162687767</v>
+        <v>20.12183630737</v>
       </c>
       <c r="S6">
-        <v>0.007182426738598423</v>
+        <v>0.004069858250450461</v>
       </c>
       <c r="T6">
-        <v>0.007182426738598423</v>
+        <v>0.004069858250450461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H7">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.499595333333334</v>
+        <v>5.929943333333333</v>
       </c>
       <c r="N7">
-        <v>10.498786</v>
+        <v>17.78983</v>
       </c>
       <c r="O7">
-        <v>0.1760939039925322</v>
+        <v>0.170713756911958</v>
       </c>
       <c r="P7">
-        <v>0.1760939039925322</v>
+        <v>0.1707137569119581</v>
       </c>
       <c r="Q7">
-        <v>2.966237173493111</v>
+        <v>9.066499886997777</v>
       </c>
       <c r="R7">
-        <v>26.696134561438</v>
+        <v>81.59849898297999</v>
       </c>
       <c r="S7">
-        <v>0.009849562248317957</v>
+        <v>0.01650417582358618</v>
       </c>
       <c r="T7">
-        <v>0.009849562248317959</v>
+        <v>0.01650417582358618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>32.140514</v>
       </c>
       <c r="I8">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J8">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1621673333333334</v>
+        <v>0.2644053333333333</v>
       </c>
       <c r="N8">
-        <v>0.486502</v>
+        <v>0.793216</v>
       </c>
       <c r="O8">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004857</v>
       </c>
       <c r="P8">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004859</v>
       </c>
       <c r="Q8">
-        <v>1.737380482447556</v>
+        <v>2.832707772558222</v>
       </c>
       <c r="R8">
-        <v>15.636424342028</v>
+        <v>25.494369953024</v>
       </c>
       <c r="S8">
-        <v>0.005769072467906493</v>
+        <v>0.005156511081215165</v>
       </c>
       <c r="T8">
-        <v>0.005769072467906495</v>
+        <v>0.005156511081215166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>32.140514</v>
       </c>
       <c r="I9">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J9">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.535193</v>
       </c>
       <c r="O9">
-        <v>0.1096134018461438</v>
+        <v>0.0627126481351834</v>
       </c>
       <c r="P9">
-        <v>0.1096134018461438</v>
+        <v>0.06271264813518342</v>
       </c>
       <c r="Q9">
         <v>23.33827356768911</v>
@@ -1013,10 +1013,10 @@
         <v>210.044462109202</v>
       </c>
       <c r="S9">
-        <v>0.07749608842051058</v>
+        <v>0.04248375615517056</v>
       </c>
       <c r="T9">
-        <v>0.07749608842051059</v>
+        <v>0.04248375615517057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>32.140514</v>
       </c>
       <c r="I10">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J10">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>9.813985333333333</v>
+        <v>23.12224033333333</v>
       </c>
       <c r="N10">
-        <v>29.441956</v>
+        <v>69.366721</v>
       </c>
       <c r="O10">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702677</v>
       </c>
       <c r="P10">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702679</v>
       </c>
       <c r="Q10">
-        <v>105.1421776672649</v>
+        <v>247.7202297149549</v>
       </c>
       <c r="R10">
-        <v>946.2795990053842</v>
+        <v>2229.482067434594</v>
       </c>
       <c r="S10">
-        <v>0.3491306875632872</v>
+        <v>0.450936775738337</v>
       </c>
       <c r="T10">
-        <v>0.3491306875632873</v>
+        <v>0.450936775738337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>32.140514</v>
       </c>
       <c r="I11">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J11">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.667365666666667</v>
+        <v>1.778892333333333</v>
       </c>
       <c r="N11">
-        <v>5.002097</v>
+        <v>5.336677</v>
       </c>
       <c r="O11">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="P11">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="Q11">
-        <v>17.86332985087311</v>
+        <v>19.05817131466422</v>
       </c>
       <c r="R11">
-        <v>160.769968657858</v>
+        <v>171.523541831978</v>
       </c>
       <c r="S11">
-        <v>0.05931622086753532</v>
+        <v>0.03469248488099849</v>
       </c>
       <c r="T11">
-        <v>0.05931622086753532</v>
+        <v>0.03469248488099849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>32.140514</v>
       </c>
       <c r="I12">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J12">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.551949666666667</v>
+        <v>1.462298333333333</v>
       </c>
       <c r="N12">
-        <v>7.655849</v>
+        <v>4.386895</v>
       </c>
       <c r="O12">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="P12">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="Q12">
-        <v>27.34032466293178</v>
+        <v>15.66634001822555</v>
       </c>
       <c r="R12">
-        <v>246.062921966386</v>
+        <v>140.99706016403</v>
       </c>
       <c r="S12">
-        <v>0.0907851307586597</v>
+        <v>0.0285181749733079</v>
       </c>
       <c r="T12">
-        <v>0.0907851307586597</v>
+        <v>0.0285181749733079</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>32.140514</v>
       </c>
       <c r="I13">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J13">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.499595333333334</v>
+        <v>5.929943333333333</v>
       </c>
       <c r="N13">
-        <v>10.498786</v>
+        <v>17.78983</v>
       </c>
       <c r="O13">
-        <v>0.1760939039925322</v>
+        <v>0.170713756911958</v>
       </c>
       <c r="P13">
-        <v>0.1760939039925322</v>
+        <v>0.1707137569119581</v>
       </c>
       <c r="Q13">
-        <v>37.49293093511156</v>
+        <v>63.53047557473555</v>
       </c>
       <c r="R13">
-        <v>337.4363784160041</v>
+        <v>571.7742801726199</v>
       </c>
       <c r="S13">
-        <v>0.1244974476138683</v>
+        <v>0.115647510297238</v>
       </c>
       <c r="T13">
-        <v>0.1244974476138683</v>
+        <v>0.115647510297238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H14">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1621673333333334</v>
+        <v>0.2644053333333333</v>
       </c>
       <c r="N14">
-        <v>0.486502</v>
+        <v>0.793216</v>
       </c>
       <c r="O14">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004857</v>
       </c>
       <c r="P14">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004859</v>
       </c>
       <c r="Q14">
-        <v>0.01031259911711111</v>
+        <v>0.05645573863822223</v>
       </c>
       <c r="R14">
-        <v>0.09281339205400001</v>
+        <v>0.5081016477440001</v>
       </c>
       <c r="S14">
-        <v>3.424358235869523E-05</v>
+        <v>0.0001027690341751257</v>
       </c>
       <c r="T14">
-        <v>3.424358235869523E-05</v>
+        <v>0.0001027690341751257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H15">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.535193</v>
       </c>
       <c r="O15">
-        <v>0.1096134018461438</v>
+        <v>0.0627126481351834</v>
       </c>
       <c r="P15">
-        <v>0.1096134018461438</v>
+        <v>0.06271264813518342</v>
       </c>
       <c r="Q15">
-        <v>0.1385293905512222</v>
+        <v>0.4651307436541112</v>
       </c>
       <c r="R15">
-        <v>1.246764514961</v>
+        <v>4.186176692887001</v>
       </c>
       <c r="S15">
-        <v>0.0004599948607106827</v>
+        <v>0.0008466993514478303</v>
       </c>
       <c r="T15">
-        <v>0.0004599948607106827</v>
+        <v>0.0008466993514478303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H16">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>9.813985333333333</v>
+        <v>23.12224033333333</v>
       </c>
       <c r="N16">
-        <v>29.441956</v>
+        <v>69.366721</v>
       </c>
       <c r="O16">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702677</v>
       </c>
       <c r="P16">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702679</v>
       </c>
       <c r="Q16">
-        <v>0.6240942266457777</v>
+        <v>4.93705304855989</v>
       </c>
       <c r="R16">
-        <v>5.616848039812</v>
+        <v>44.43347743703901</v>
       </c>
       <c r="S16">
-        <v>0.002072341008026855</v>
+        <v>0.008987149680623448</v>
       </c>
       <c r="T16">
-        <v>0.002072341008026855</v>
+        <v>0.008987149680623448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H17">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.667365666666667</v>
+        <v>1.778892333333333</v>
       </c>
       <c r="N17">
-        <v>5.002097</v>
+        <v>5.336677</v>
       </c>
       <c r="O17">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="P17">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="Q17">
-        <v>0.1060316732632222</v>
+        <v>0.3798284980492223</v>
       </c>
       <c r="R17">
-        <v>0.954285059369</v>
+        <v>3.418456482443001</v>
       </c>
       <c r="S17">
-        <v>0.0003520843091820431</v>
+        <v>0.00069141966500248</v>
       </c>
       <c r="T17">
-        <v>0.0003520843091820431</v>
+        <v>0.00069141966500248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H18">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>2.551949666666667</v>
+        <v>1.462298333333333</v>
       </c>
       <c r="N18">
-        <v>7.655849</v>
+        <v>4.386895</v>
       </c>
       <c r="O18">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="P18">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="Q18">
-        <v>0.1622844338525556</v>
+        <v>0.3122294527005556</v>
       </c>
       <c r="R18">
-        <v>1.460559904673</v>
+        <v>2.810065074305001</v>
       </c>
       <c r="S18">
-        <v>0.0005388748571583149</v>
+        <v>0.0005683659459437126</v>
       </c>
       <c r="T18">
-        <v>0.0005388748571583148</v>
+        <v>0.0005683659459437127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H19">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.499595333333334</v>
+        <v>5.929943333333333</v>
       </c>
       <c r="N19">
-        <v>10.498786</v>
+        <v>17.78983</v>
       </c>
       <c r="O19">
-        <v>0.1760939039925322</v>
+        <v>0.170713756911958</v>
       </c>
       <c r="P19">
-        <v>0.1760939039925322</v>
+        <v>0.1707137569119581</v>
       </c>
       <c r="Q19">
-        <v>0.2225474329691111</v>
+        <v>1.266159523885556</v>
       </c>
       <c r="R19">
-        <v>2.002926896722</v>
+        <v>11.39543571497</v>
       </c>
       <c r="S19">
-        <v>0.0007389816343145896</v>
+        <v>0.002304849684373079</v>
       </c>
       <c r="T19">
-        <v>0.0007389816343145896</v>
+        <v>0.002304849684373079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H20">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1621673333333334</v>
+        <v>0.2644053333333333</v>
       </c>
       <c r="N20">
-        <v>0.486502</v>
+        <v>0.793216</v>
       </c>
       <c r="O20">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004857</v>
       </c>
       <c r="P20">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004859</v>
       </c>
       <c r="Q20">
-        <v>0.5542816208073333</v>
+        <v>0.7483635131448889</v>
       </c>
       <c r="R20">
-        <v>4.988534587266</v>
+        <v>6.735271618304001</v>
       </c>
       <c r="S20">
-        <v>0.001840524208929404</v>
+        <v>0.001362281272248465</v>
       </c>
       <c r="T20">
-        <v>0.001840524208929404</v>
+        <v>0.001362281272248465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H21">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.535193</v>
       </c>
       <c r="O21">
-        <v>0.1096134018461438</v>
+        <v>0.0627126481351834</v>
       </c>
       <c r="P21">
-        <v>0.1096134018461438</v>
+        <v>0.06271264813518342</v>
       </c>
       <c r="Q21">
-        <v>7.445678267157666</v>
+        <v>6.165659785682444</v>
       </c>
       <c r="R21">
-        <v>67.01110440441899</v>
+        <v>55.490938071142</v>
       </c>
       <c r="S21">
-        <v>0.02472380571205458</v>
+        <v>0.01122364026246226</v>
       </c>
       <c r="T21">
-        <v>0.02472380571205458</v>
+        <v>0.01122364026246226</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H22">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>9.813985333333333</v>
+        <v>23.12224033333333</v>
       </c>
       <c r="N22">
-        <v>29.441956</v>
+        <v>69.366721</v>
       </c>
       <c r="O22">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702677</v>
       </c>
       <c r="P22">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702679</v>
       </c>
       <c r="Q22">
-        <v>33.54381912390533</v>
+        <v>65.44437205364156</v>
       </c>
       <c r="R22">
-        <v>301.894372115148</v>
+        <v>588.9993484827741</v>
       </c>
       <c r="S22">
-        <v>0.1113841932329863</v>
+        <v>0.1191314660011703</v>
       </c>
       <c r="T22">
-        <v>0.1113841932329863</v>
+        <v>0.1191314660011703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H23">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.667365666666667</v>
+        <v>1.778892333333333</v>
       </c>
       <c r="N23">
-        <v>5.002097</v>
+        <v>5.336677</v>
       </c>
       <c r="O23">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="P23">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="Q23">
-        <v>5.698990821405666</v>
+        <v>5.034914006070888</v>
       </c>
       <c r="R23">
-        <v>51.29091739265099</v>
+        <v>45.314226054638</v>
       </c>
       <c r="S23">
-        <v>0.01892382893372102</v>
+        <v>0.009165290580546942</v>
       </c>
       <c r="T23">
-        <v>0.01892382893372102</v>
+        <v>0.009165290580546942</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H24">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.551949666666667</v>
+        <v>1.462298333333333</v>
       </c>
       <c r="N24">
-        <v>7.655849</v>
+        <v>4.386895</v>
       </c>
       <c r="O24">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="P24">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="Q24">
-        <v>8.722464434629666</v>
+        <v>4.138837534792222</v>
       </c>
       <c r="R24">
-        <v>78.50217991166699</v>
+        <v>37.24953781313</v>
       </c>
       <c r="S24">
-        <v>0.02896344809354939</v>
+        <v>0.007534120468851399</v>
       </c>
       <c r="T24">
-        <v>0.02896344809354939</v>
+        <v>0.007534120468851399</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H25">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.499595333333334</v>
+        <v>5.929943333333333</v>
       </c>
       <c r="N25">
-        <v>10.498786</v>
+        <v>17.78983</v>
       </c>
       <c r="O25">
-        <v>0.1760939039925322</v>
+        <v>0.170713756911958</v>
       </c>
       <c r="P25">
-        <v>0.1760939039925322</v>
+        <v>0.1707137569119581</v>
       </c>
       <c r="Q25">
-        <v>11.96148036511533</v>
+        <v>16.78390208600222</v>
       </c>
       <c r="R25">
-        <v>107.653323286038</v>
+        <v>151.05511877402</v>
       </c>
       <c r="S25">
-        <v>0.03971878799546374</v>
+        <v>0.03055252572500292</v>
       </c>
       <c r="T25">
-        <v>0.03971878799546374</v>
+        <v>0.03055252572500292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H26">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I26">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J26">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1621673333333334</v>
+        <v>0.2644053333333333</v>
       </c>
       <c r="N26">
-        <v>0.486502</v>
+        <v>0.793216</v>
       </c>
       <c r="O26">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004857</v>
       </c>
       <c r="P26">
-        <v>0.008159994544147764</v>
+        <v>0.007611814357004859</v>
       </c>
       <c r="Q26">
-        <v>0.011173977936</v>
+        <v>0.1397326661546667</v>
       </c>
       <c r="R26">
-        <v>0.100565801424</v>
+        <v>1.257593995392</v>
       </c>
       <c r="S26">
-        <v>3.710384059153151E-05</v>
+        <v>0.0002543619389244531</v>
       </c>
       <c r="T26">
-        <v>3.710384059153152E-05</v>
+        <v>0.0002543619389244531</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H27">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I27">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J27">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.535193</v>
       </c>
       <c r="O27">
-        <v>0.1096134018461438</v>
+        <v>0.0627126481351834</v>
       </c>
       <c r="P27">
-        <v>0.1096134018461438</v>
+        <v>0.06271264813518342</v>
       </c>
       <c r="Q27">
-        <v>0.150100312824</v>
+        <v>1.151237420482333</v>
       </c>
       <c r="R27">
-        <v>1.350902815416</v>
+        <v>10.361136784341</v>
       </c>
       <c r="S27">
-        <v>0.00049841677795136</v>
+        <v>0.002095651578795074</v>
       </c>
       <c r="T27">
-        <v>0.0004984167779513601</v>
+        <v>0.002095651578795074</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H28">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I28">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J28">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>9.813985333333333</v>
+        <v>23.12224033333333</v>
       </c>
       <c r="N28">
-        <v>29.441956</v>
+        <v>69.366721</v>
       </c>
       <c r="O28">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702677</v>
       </c>
       <c r="P28">
-        <v>0.4938236642995065</v>
+        <v>0.6656529908702679</v>
       </c>
       <c r="Q28">
-        <v>0.6762228454079999</v>
+        <v>12.21961844911967</v>
       </c>
       <c r="R28">
-        <v>6.086005608672</v>
+        <v>109.976566042077</v>
       </c>
       <c r="S28">
-        <v>0.002245437104322047</v>
+        <v>0.02224394572271812</v>
       </c>
       <c r="T28">
-        <v>0.002245437104322048</v>
+        <v>0.02224394572271812</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H29">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I29">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J29">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.667365666666667</v>
+        <v>1.778892333333333</v>
       </c>
       <c r="N29">
-        <v>5.002097</v>
+        <v>5.336677</v>
       </c>
       <c r="O29">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="P29">
-        <v>0.08389910879975394</v>
+        <v>0.05121151692262588</v>
       </c>
       <c r="Q29">
-        <v>0.114888163896</v>
+        <v>0.9401072414276667</v>
       </c>
       <c r="R29">
-        <v>1.033993475064</v>
+        <v>8.460965172849001</v>
       </c>
       <c r="S29">
-        <v>0.0003814927990252414</v>
+        <v>0.001711321391819547</v>
       </c>
       <c r="T29">
-        <v>0.0003814927990252415</v>
+        <v>0.001711321391819547</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H30">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I30">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J30">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>2.551949666666667</v>
+        <v>1.462298333333333</v>
       </c>
       <c r="N30">
-        <v>7.655849</v>
+        <v>4.386895</v>
       </c>
       <c r="O30">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="P30">
-        <v>0.1284099265179159</v>
+        <v>0.04209727280296013</v>
       </c>
       <c r="Q30">
-        <v>0.175839539832</v>
+        <v>0.7727939609016666</v>
       </c>
       <c r="R30">
-        <v>1.582555858488</v>
+        <v>6.955145648115001</v>
       </c>
       <c r="S30">
-        <v>0.0005838853712602126</v>
+        <v>0.001406753164406654</v>
       </c>
       <c r="T30">
-        <v>0.0005838853712602126</v>
+        <v>0.001406753164406654</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H31">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I31">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J31">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.499595333333334</v>
+        <v>5.929943333333333</v>
       </c>
       <c r="N31">
-        <v>10.498786</v>
+        <v>17.78983</v>
       </c>
       <c r="O31">
-        <v>0.1760939039925322</v>
+        <v>0.170713756911958</v>
       </c>
       <c r="P31">
-        <v>0.1760939039925322</v>
+        <v>0.1707137569119581</v>
       </c>
       <c r="Q31">
-        <v>0.241136116848</v>
+        <v>3.133850522856667</v>
       </c>
       <c r="R31">
-        <v>2.170225051632</v>
+        <v>28.20465470571</v>
       </c>
       <c r="S31">
-        <v>0.0008007064352224713</v>
+        <v>0.00570469538175781</v>
       </c>
       <c r="T31">
-        <v>0.0008007064352224715</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H32">
-        <v>0.126091</v>
-      </c>
-      <c r="I32">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J32">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M32">
-        <v>0.1621673333333334</v>
-      </c>
-      <c r="N32">
-        <v>0.486502</v>
-      </c>
-      <c r="O32">
-        <v>0.008159994544147764</v>
-      </c>
-      <c r="P32">
-        <v>0.008159994544147764</v>
-      </c>
-      <c r="Q32">
-        <v>0.006815947075777779</v>
-      </c>
-      <c r="R32">
-        <v>0.06134352368200001</v>
-      </c>
-      <c r="S32">
-        <v>2.263274683630752E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.263274683630753E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H33">
-        <v>0.126091</v>
-      </c>
-      <c r="I33">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J33">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.178397666666667</v>
-      </c>
-      <c r="N33">
-        <v>6.535193</v>
-      </c>
-      <c r="O33">
-        <v>0.1096134018461438</v>
-      </c>
-      <c r="P33">
-        <v>0.1096134018461438</v>
-      </c>
-      <c r="Q33">
-        <v>0.09155878006255556</v>
-      </c>
-      <c r="R33">
-        <v>0.824029020563</v>
-      </c>
-      <c r="S33">
-        <v>0.0003040262294819118</v>
-      </c>
-      <c r="T33">
-        <v>0.0003040262294819118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.126091</v>
-      </c>
-      <c r="I34">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J34">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>9.813985333333333</v>
-      </c>
-      <c r="N34">
-        <v>29.441956</v>
-      </c>
-      <c r="O34">
-        <v>0.4938236642995065</v>
-      </c>
-      <c r="P34">
-        <v>0.4938236642995065</v>
-      </c>
-      <c r="Q34">
-        <v>0.4124850748884444</v>
-      </c>
-      <c r="R34">
-        <v>3.712365673996</v>
-      </c>
-      <c r="S34">
-        <v>0.001369680569686672</v>
-      </c>
-      <c r="T34">
-        <v>0.001369680569686672</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H35">
-        <v>0.126091</v>
-      </c>
-      <c r="I35">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J35">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.667365666666667</v>
-      </c>
-      <c r="N35">
-        <v>5.002097</v>
-      </c>
-      <c r="O35">
-        <v>0.08389910879975394</v>
-      </c>
-      <c r="P35">
-        <v>0.08389910879975394</v>
-      </c>
-      <c r="Q35">
-        <v>0.07007993475855556</v>
-      </c>
-      <c r="R35">
-        <v>0.6307194128270001</v>
-      </c>
-      <c r="S35">
-        <v>0.0002327044802521949</v>
-      </c>
-      <c r="T35">
-        <v>0.000232704480252195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.126091</v>
-      </c>
-      <c r="I36">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J36">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.551949666666667</v>
-      </c>
-      <c r="N36">
-        <v>7.655849</v>
-      </c>
-      <c r="O36">
-        <v>0.1284099265179159</v>
-      </c>
-      <c r="P36">
-        <v>0.1284099265179159</v>
-      </c>
-      <c r="Q36">
-        <v>0.1072592951398889</v>
-      </c>
-      <c r="R36">
-        <v>0.965333656259</v>
-      </c>
-      <c r="S36">
-        <v>0.0003561606986898268</v>
-      </c>
-      <c r="T36">
-        <v>0.0003561606986898268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H37">
-        <v>0.126091</v>
-      </c>
-      <c r="I37">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J37">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>3.499595333333334</v>
-      </c>
-      <c r="N37">
-        <v>10.498786</v>
-      </c>
-      <c r="O37">
-        <v>0.1760939039925322</v>
-      </c>
-      <c r="P37">
-        <v>0.1760939039925322</v>
-      </c>
-      <c r="Q37">
-        <v>0.1470891583917778</v>
-      </c>
-      <c r="R37">
-        <v>1.323802425526</v>
-      </c>
-      <c r="S37">
-        <v>0.0004884180653451984</v>
-      </c>
-      <c r="T37">
-        <v>0.0004884180653451984</v>
+        <v>0.005704695381757809</v>
       </c>
     </row>
   </sheetData>
